--- a/backend/expense_details.xlsx
+++ b/backend/expense_details.xlsx
@@ -416,73 +416,73 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Rent</v>
+        <v>Food</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="C2" s="1">
-        <v>45745.229537037034</v>
+        <v>45789.229537037034</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Rent</v>
+        <v>groceries</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1">
-        <v>45745.229537037034</v>
+        <v>45789.229537037034</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Foo</v>
+        <v>coffe</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1">
-        <v>45745.229537037034</v>
+        <v>45789.229537037034</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Food</v>
+        <v>subcription</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C5" s="1">
-        <v>45745.229537037034</v>
+        <v>45786.229537037034</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Rent</v>
+        <v>travel</v>
       </c>
       <c r="B6">
         <v>200</v>
       </c>
       <c r="C6" s="1">
-        <v>45745.229537037034</v>
+        <v>45782.229537037034</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Rent</v>
+        <v>dog food</v>
       </c>
       <c r="B7">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C7" s="1">
-        <v>45745.229537037034</v>
+        <v>45780.229537037034</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>House</v>
+        <v>Rent</v>
       </c>
       <c r="B8">
         <v>200</v>
